--- a/result.xlsx
+++ b/result.xlsx
@@ -1,43 +1,438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>ours</t>
+  </si>
+  <si>
+    <t>lstm</t>
+  </si>
+  <si>
+    <t>CVCNN</t>
+  </si>
+  <si>
+    <t>STEMGNN</t>
+  </si>
+  <si>
+    <t>LLM4CP</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>nmse</t>
+  </si>
+  <si>
+    <t>sgcs</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,24 +440,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -320,23 +1002,684 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="3" max="12" width="12.7857142857143"/>
+    <col min="13" max="14" width="11.9285714285714"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.016869219020009</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.943769216537476</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.179421735045938</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.678069472312927</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1856629550457</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.894248485565186</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.0719643370420907</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.926710724830627</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.0363125130534172</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.9076167345047</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0450422987341881</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.895877838134766</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.21589036901845</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.645561695098877</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.490223586559296</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.628135144710541</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.228003078147883</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.783979117870331</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.0720748156309128</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.848758101463318</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.112588673830032</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.799276828765869</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.586469402628994</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.37553197145462</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.859521925449371</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.213766351342201</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.601172663907713</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.501960039138794</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.148437365889549</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.723219513893127</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="1">
+        <f>AVERAGE(C3:C5)</f>
+        <v>0.0581667305280765</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:L6" si="0">AVERAGE(D3:D5)</f>
+        <v>0.87964129447937</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.327260502231127</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.566387712955475</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.511802822351456</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.578716660539309</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.300380026365896</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.737549960613251</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.0856082315246264</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.826531449953715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.136173844337463</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.740184009075165</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.201277425229339</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.655352294445038</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.846169352531433</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.175881370902061</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.517662112694866</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.434598833322525</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.150281101465225</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.715835571289062</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.151303991675377</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.717790305614471</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.211603623646291</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.64990645647049</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.883420646190643</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.177068755030632</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.470923527304571</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.490650743246078</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.161351263523102</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.69276887178421</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.173730343580246</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.6804279088974</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.641337878782963</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.340133756399155</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.959414184093475</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.118179298937321</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.672426180350541</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.334735959768295</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.183111757040024</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.666191875934601</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="1">
+        <f>AVERAGE(C7:C9)</f>
+        <v>0.153736059864362</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:L10" si="1">AVERAGE(D7:D9)</f>
+        <v>0.712800741195679</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.351406309219531</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.548464169104894</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.896334727605184</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.157043141623338</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.553670606783326</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.419995178778966</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.164914707342784</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.691598773002625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.162776380777359</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.687012791633606</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.210806599500689</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.660906374454498</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.918806135654449</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.128644526004791</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.519995628552847</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.44449383020401</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.159041285514831</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.702273190021515</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.167343035340309</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.678125023841858</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.471784353456965</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.474152088165283</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.951640605926514</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.13854555785656</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.469939600138263</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.495488464832306</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.16419081389904</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.688554883003235</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.190030038356781</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.657750487327576</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.807850397682076</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.246218308806419</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.98171591758728</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.0733345225453377</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.870458373359746</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.180153846740723</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.178152069449425</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.668518245220184</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="1">
+        <f>AVERAGE(C11:C13)</f>
+        <v>0.173383151491483</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:L14" si="2">AVERAGE(D11:D13)</f>
+        <v>0.674296100934347</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.496813783546577</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4604255904754</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.950720886389414</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.113508202135563</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.620131200683619</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37337871392568</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.167128056287765</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.686448772748311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.115785770118236</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.784973800182343</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.202026072024721</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.658919870853424</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.948026359081268</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.223570078611374</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.350470566927756</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.618517577648163</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.134129419922829</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.748817503452301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.137712255120277</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.748353898525238</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.482794162022282</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.44704595208168</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.960135817527771</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.200002998113632</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.300177355258803</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.634667754173279</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.153027415275574</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.707690954208374</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.164155632257461</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.69421398639679</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.792544493862181</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.242717713117599</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.9844029545784</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0781930088996887</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.79804029464403</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.25547981262207</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.177988886833191</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.68038684129715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <f>AVERAGE(C15:C17)</f>
+        <v>0.139217885831992</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:L18" si="3">AVERAGE(D15:D17)</f>
+        <v>0.74251389503479</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.492454909303061</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.449561178684235</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96418837706248</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.167255361874898</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.482896072276863</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.502888381481171</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.155048574010531</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.712298432985942</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>